--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Nataly Caro.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Nataly Caro.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,11 +398,6 @@
           <t>Revisar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Observación</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Nataly Caro.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Nataly Caro.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Porc_trans</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cost_trans</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porc_producto</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Valor_producto</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Valor_Neto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Part_profesional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Revisar</t>
         </is>
@@ -412,7 +432,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Blower  Cabello medio</t>
+          <t>Balayage Previa Valoracion &amp; Diagnostico desde</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -421,13 +441,25 @@
         </is>
       </c>
       <c r="E2">
-        <v>35000</v>
+        <v>365000</v>
       </c>
       <c r="F2">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G2">
-        <v>19250</v>
+        <v>13140</v>
+      </c>
+      <c r="H2">
+        <v>0.1096767123287671</v>
+      </c>
+      <c r="I2">
+        <v>40032</v>
+      </c>
+      <c r="J2">
+        <v>311828</v>
+      </c>
+      <c r="K2">
+        <v>160718</v>
       </c>
     </row>
     <row r="3">
@@ -443,7 +475,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Asesoria de  Color</t>
+          <t>Blower  Cabello medio</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -452,13 +484,25 @@
         </is>
       </c>
       <c r="E3">
-        <v>365000</v>
+        <v>35000</v>
       </c>
       <c r="F3">
+        <v>0.036</v>
+      </c>
+      <c r="G3">
+        <v>1260</v>
+      </c>
+      <c r="H3">
+        <v>0.1166</v>
+      </c>
+      <c r="I3">
         <v>4081</v>
       </c>
-      <c r="G3">
-        <v>200750</v>
+      <c r="J3">
+        <v>29659</v>
+      </c>
+      <c r="K3">
+        <v>19250</v>
       </c>
     </row>
     <row r="4">
@@ -486,9 +530,21 @@
         <v>28000</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.14575</v>
+      </c>
+      <c r="I4">
         <v>4081</v>
       </c>
-      <c r="G4">
+      <c r="J4">
+        <v>23919</v>
+      </c>
+      <c r="K4">
         <v>15400</v>
       </c>
     </row>
@@ -517,9 +573,21 @@
         <v>35000</v>
       </c>
       <c r="F5">
+        <v>0.036</v>
+      </c>
+      <c r="G5">
+        <v>1260</v>
+      </c>
+      <c r="H5">
+        <v>0.1166</v>
+      </c>
+      <c r="I5">
         <v>4081</v>
       </c>
-      <c r="G5">
+      <c r="J5">
+        <v>29659</v>
+      </c>
+      <c r="K5">
         <v>19250</v>
       </c>
     </row>
@@ -548,9 +616,21 @@
         <v>35000</v>
       </c>
       <c r="F6">
+        <v>0.036</v>
+      </c>
+      <c r="G6">
+        <v>1260</v>
+      </c>
+      <c r="H6">
+        <v>0.1166</v>
+      </c>
+      <c r="I6">
         <v>4081</v>
       </c>
-      <c r="G6">
+      <c r="J6">
+        <v>29659</v>
+      </c>
+      <c r="K6">
         <v>19250</v>
       </c>
     </row>
@@ -579,9 +659,21 @@
         <v>22000</v>
       </c>
       <c r="F7">
+        <v>0.036</v>
+      </c>
+      <c r="G7">
+        <v>791.9999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
         <v>5500</v>
       </c>
-      <c r="G7">
+      <c r="J7">
+        <v>15708</v>
+      </c>
+      <c r="K7">
         <v>8800</v>
       </c>
     </row>
@@ -610,10 +702,22 @@
         <v>165000</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G8">
-        <v>90750</v>
+        <v>5940</v>
+      </c>
+      <c r="H8">
+        <v>0.2222545454545455</v>
+      </c>
+      <c r="I8">
+        <v>36672</v>
+      </c>
+      <c r="J8">
+        <v>122388</v>
+      </c>
+      <c r="K8">
+        <v>54078</v>
       </c>
     </row>
     <row r="9">
@@ -641,9 +745,21 @@
         <v>55000</v>
       </c>
       <c r="F9">
+        <v>0.036</v>
+      </c>
+      <c r="G9">
+        <v>1980</v>
+      </c>
+      <c r="H9">
+        <v>0.0742</v>
+      </c>
+      <c r="I9">
         <v>4081</v>
       </c>
-      <c r="G9">
+      <c r="J9">
+        <v>48939</v>
+      </c>
+      <c r="K9">
         <v>30250</v>
       </c>
     </row>
@@ -672,10 +788,22 @@
         <v>300000</v>
       </c>
       <c r="F10">
-        <v>4081</v>
+        <v>0.036</v>
       </c>
       <c r="G10">
-        <v>165000</v>
+        <v>10800</v>
+      </c>
+      <c r="H10">
+        <v>0.2016</v>
+      </c>
+      <c r="I10">
+        <v>60480</v>
+      </c>
+      <c r="J10">
+        <v>228720</v>
+      </c>
+      <c r="K10">
+        <v>120736</v>
       </c>
     </row>
     <row r="11">
@@ -703,9 +831,21 @@
         <v>28000</v>
       </c>
       <c r="F11">
+        <v>0.036</v>
+      </c>
+      <c r="G11">
+        <v>1008</v>
+      </c>
+      <c r="H11">
+        <v>0.14575</v>
+      </c>
+      <c r="I11">
         <v>4081</v>
       </c>
-      <c r="G11">
+      <c r="J11">
+        <v>22911</v>
+      </c>
+      <c r="K11">
         <v>15400</v>
       </c>
     </row>
@@ -734,9 +874,21 @@
         <v>200000</v>
       </c>
       <c r="F12">
+        <v>0.036</v>
+      </c>
+      <c r="G12">
+        <v>7199.999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.020405</v>
+      </c>
+      <c r="I12">
         <v>4081</v>
       </c>
-      <c r="G12">
+      <c r="J12">
+        <v>188719</v>
+      </c>
+      <c r="K12">
         <v>110000</v>
       </c>
     </row>
@@ -765,9 +917,21 @@
         <v>35000</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.1166</v>
+      </c>
+      <c r="I13">
         <v>4081</v>
       </c>
-      <c r="G13">
+      <c r="J13">
+        <v>30919</v>
+      </c>
+      <c r="K13">
         <v>19250</v>
       </c>
     </row>
@@ -796,9 +960,21 @@
         <v>38500</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.106</v>
+      </c>
+      <c r="I14">
         <v>4081</v>
       </c>
-      <c r="G14">
+      <c r="J14">
+        <v>34419</v>
+      </c>
+      <c r="K14">
         <v>21175</v>
       </c>
     </row>
@@ -827,9 +1003,21 @@
         <v>18000</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.2267222222222222</v>
+      </c>
+      <c r="I15">
         <v>4081</v>
       </c>
-      <c r="G15">
+      <c r="J15">
+        <v>13919</v>
+      </c>
+      <c r="K15">
         <v>9900</v>
       </c>
     </row>
@@ -858,9 +1046,21 @@
         <v>35000</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.1166</v>
+      </c>
+      <c r="I16">
         <v>4081</v>
       </c>
-      <c r="G16">
+      <c r="J16">
+        <v>30919</v>
+      </c>
+      <c r="K16">
         <v>19250</v>
       </c>
     </row>
@@ -880,7 +1080,7 @@
           <t>Nataly Caro</t>
         </is>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>-50000</v>
       </c>
     </row>
@@ -900,7 +1100,7 @@
           <t>Nataly Caro</t>
         </is>
       </c>
-      <c r="G18">
+      <c r="K18">
         <v>-17000</v>
       </c>
     </row>
@@ -920,7 +1120,7 @@
           <t>Nataly Caro</t>
         </is>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>-8000</v>
       </c>
     </row>
